--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/ManageSchedule_SendMoney_WithBene.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/ManageSchedule_SendMoney_WithBene.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL-Automation-9242020\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL-Automation-10192020\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,14 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="82">
   <si>
     <t>Case</t>
   </si>
   <si>
-    <t>status_query</t>
-  </si>
-  <si>
     <t>From_Account_Value</t>
   </si>
   <si>
@@ -62,21 +59,9 @@
     <t>From_Date_Value</t>
   </si>
   <si>
-    <t>From_Month_Value</t>
-  </si>
-  <si>
-    <t>From_Year_Value</t>
-  </si>
-  <si>
     <t>To_Date_Value</t>
   </si>
   <si>
-    <t>To_Month_Value</t>
-  </si>
-  <si>
-    <t>To_Year_Value</t>
-  </si>
-  <si>
     <t>OTP_Value</t>
   </si>
   <si>
@@ -110,36 +95,15 @@
     <t>to_bank_query</t>
   </si>
   <si>
-    <t>When valid Bene and Schedule Dates are provided</t>
-  </si>
-  <si>
-    <t>2197900643103</t>
-  </si>
-  <si>
     <t>HBL / Konnect</t>
   </si>
   <si>
-    <t>06047900194203</t>
-  </si>
-  <si>
     <t>Others</t>
   </si>
   <si>
-    <t>AliAbbas1</t>
-  </si>
-  <si>
-    <t>03121223345</t>
-  </si>
-  <si>
-    <t>aliabb111@gmail.com</t>
-  </si>
-  <si>
     <t>Weekly</t>
   </si>
   <si>
-    <t>12345</t>
-  </si>
-  <si>
     <t>pakistan2</t>
   </si>
   <si>
@@ -174,13 +138,145 @@
   </si>
   <si>
     <t>SELECT count(*) FROM DC_SCHEDULED_TRAN_MASTER TM where TM.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = '{customer_name}') and TM.LAST_EXECUTION_DATE &gt; sysdate and TM.IS_DELETED = 0</t>
+  </si>
+  <si>
+    <t>Expected_Result</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>SELECT count(*) FROM DC_SCHEDULED_TRAN_MASTER TM where TM.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = '{customer_name}') and TM.LAST_EXECUTION_DATE &gt; sysdate and TM.IS_DELETED = 1</t>
+  </si>
+  <si>
+    <t>SELECT count(*) FROM DC_SCHEDULED_TRAN_MASTER TM where TM.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = '{customer_name}') and TM.LAST_EXECUTION_DATE &gt; sysdate and TM.IS_DELETED = 2</t>
+  </si>
+  <si>
+    <t>SELECT count(*) FROM DC_SCHEDULED_TRAN_MASTER TM where TM.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = '{customer_name}') and TM.LAST_EXECUTION_DATE &gt; sysdate and TM.IS_DELETED = 3</t>
+  </si>
+  <si>
+    <t>SELECT count(*) FROM DC_SCHEDULED_TRAN_MASTER TM where TM.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = '{customer_name}') and TM.LAST_EXECUTION_DATE &gt; sysdate and TM.IS_DELETED = 4</t>
+  </si>
+  <si>
+    <t>SELECT count(*) FROM DC_SCHEDULED_TRAN_MASTER TM where TM.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = '{customer_name}') and TM.LAST_EXECUTION_DATE &gt; sysdate and TM.IS_DELETED = 5</t>
+  </si>
+  <si>
+    <t>SELECT count(*) FROM DC_SCHEDULED_TRAN_MASTER TM where TM.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = '{customer_name}') and TM.LAST_EXECUTION_DATE &gt; sysdate and TM.IS_DELETED = 6</t>
+  </si>
+  <si>
+    <t>SELECT count(*) FROM DC_SCHEDULED_TRAN_MASTER TM where TM.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = '{customer_name}') and TM.LAST_EXECUTION_DATE &gt; sysdate and TM.IS_DELETED = 7</t>
+  </si>
+  <si>
+    <t>04897901885203</t>
+  </si>
+  <si>
+    <t>07867915677101</t>
+  </si>
+  <si>
+    <t>Tax payment</t>
+  </si>
+  <si>
+    <t>Daily</t>
+  </si>
+  <si>
+    <t>03343913854</t>
+  </si>
+  <si>
+    <t>abc@test.com</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>12345678</t>
+  </si>
+  <si>
+    <t>14900011079803</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>00476001511601</t>
+  </si>
+  <si>
+    <t>Fortnightly</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>09470201056703</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>800</t>
+  </si>
+  <si>
+    <t>24460094904501</t>
+  </si>
+  <si>
+    <t>BILAL Ahmad</t>
+  </si>
+  <si>
+    <t>Quarterly</t>
+  </si>
+  <si>
+    <t>3200</t>
+  </si>
+  <si>
+    <t>23087900855910</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>15647900453401</t>
+  </si>
+  <si>
+    <t>RecAccountBLOCKED</t>
+  </si>
+  <si>
+    <t>03334900125</t>
+  </si>
+  <si>
+    <t>Branchless</t>
+  </si>
+  <si>
+    <t>Customer Schedule the FCY USD (Daily) MngSch_Send_Bene</t>
+  </si>
+  <si>
+    <t>Customer Schedule the Receiver Account Blocked 15647900453401 (Daily) MngSch_Send_Bene</t>
+  </si>
+  <si>
+    <t>Customer Schedule the Branchless 03334900125 (Daily) MngSch_Send_Bene</t>
+  </si>
+  <si>
+    <t>Customer Schedule the Send Money with Bene of other HBL(Quarterly) MngSch_Send_Bene</t>
+  </si>
+  <si>
+    <t>Customer Schedule the Send Money with Bene of other HBL(Monthly) MngSch_Send_Bene</t>
+  </si>
+  <si>
+    <t>Customer Schedule the Send Money with Bene of other HBL(Fortnightly) MngSch_Send_Bene</t>
+  </si>
+  <si>
+    <t>Customer Schedule the Send Money with Bene of other HBL(Weekly) MngSch_Send_Bene</t>
+  </si>
+  <si>
+    <t>Customer Schedule the Send Money with Bene of other HBL(Daily) MngSch_Send_Bene</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,21 +285,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF222222"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF222222"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -226,19 +315,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -517,206 +605,733 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC2"/>
+  <dimension ref="A1:Y9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AC8" sqref="AC8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="185.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="80.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="76.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="86.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="87.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="77.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="167.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="86.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="54.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="185.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="80.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="76.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="86.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="87.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="77.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="167.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="G2" s="1">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="H2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="1">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="H3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="1">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="H4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="1">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="H5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="1">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="H6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="1">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" t="s">
+      <c r="H7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="F8" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="1">
+        <v>15</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" t="s">
+      <c r="I8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="P8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="Q8" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="R8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="1">
+        <v>15</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="S9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="T9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="U9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="3">
-        <v>10</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="V9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="W9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="X9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K2" t="s">
+      <c r="Y9" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="W2" t="s">
-        <v>41</v>
-      </c>
-      <c r="X2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
